--- a/Ward Chandler/18432/Ward Chandler__Murray Halberg Tropicana__resources.xlsx
+++ b/Ward Chandler/18432/Ward Chandler__Murray Halberg Tropicana__resources.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="125">
   <si>
     <t>Rich Type</t>
   </si>
@@ -109,175 +109,196 @@
     <t>First Fix</t>
   </si>
   <si>
+    <t>SYS - PRE - S - First Fix - Electrical (old version)</t>
+  </si>
+  <si>
+    <t>32c93962-9caa-45bd-b041-04a07c91d8a8</t>
+  </si>
+  <si>
+    <t>Flushboxes at correct orientation and heights</t>
+  </si>
+  <si>
+    <t>Flushbox positioned correctly to suit kitchen and bathroom layouts</t>
+  </si>
+  <si>
+    <t>Metal flushboxes installed at Fire walls</t>
+  </si>
+  <si>
+    <t>Cables protected thru metal studs</t>
+  </si>
+  <si>
+    <t>Cables penetrating firewalls are supported 200mm from the wall</t>
+  </si>
+  <si>
+    <t>Kitchen island conduit installed.C/D/E 69,70,78,79,84,85,86,87.F75,F76,F77 &amp; F78</t>
+  </si>
+  <si>
+    <t>Bathroom Reo earth bond installed and extended to DB</t>
+  </si>
+  <si>
+    <t>Check lighting installation against drawing</t>
+  </si>
+  <si>
+    <t>cables at correct locations (including kitchen island) , cables labelled, 2- way lighting correctly wired,</t>
+  </si>
+  <si>
+    <t>Check no downlight clashes with rondo or strong backs</t>
+  </si>
+  <si>
+    <t>Check ceiling fans prewired in bedrooms and lounge 2 x 1.5mm 2c+e at each location</t>
+  </si>
+  <si>
+    <t>Check power installation against drawing</t>
+  </si>
+  <si>
+    <t>cables at correct locations (including kitchen island) , cables labelled, Comms panel, HWC and Heat pump wired wired</t>
+  </si>
+  <si>
+    <t>Check laundry power has separately labelled cable for dryer</t>
+  </si>
+  <si>
+    <t>Check laundry extract fan supply in place</t>
+  </si>
+  <si>
+    <t>Check bathroom/WC extract fan supply (inc surface socket) in position with switch loops</t>
+  </si>
+  <si>
+    <t>Confirm E4M contractor has installed controller before gib ceiling installed</t>
+  </si>
+  <si>
+    <t>Check UFH prewired inc draw wire</t>
+  </si>
+  <si>
+    <t>Check towel rail nogs inc draw wire</t>
+  </si>
+  <si>
+    <t>Check switchboard back box install in correct location and all cables are labelled</t>
+  </si>
+  <si>
+    <t>Check circuits against DB schedule</t>
+  </si>
+  <si>
+    <t>Check submain and hot water supply are installed to DB</t>
+  </si>
+  <si>
+    <t>Check any client extras are prewired</t>
+  </si>
+  <si>
+    <t>POST - S - Second Fix - Electrical</t>
+  </si>
+  <si>
+    <t>682a3041-61c0-4e85-9705-2d379a00cd2c</t>
+  </si>
+  <si>
+    <t>All cover plates in place &amp; fitted correctly and straight</t>
+  </si>
+  <si>
+    <t>All light fittings tight &amp; secure and acceptable</t>
+  </si>
+  <si>
+    <t>All cables are tied up</t>
+  </si>
+  <si>
+    <t>Switch board fit off is completed and acceptable</t>
+  </si>
+  <si>
+    <t>Test sheet for insulation Resistance are completed and acceptable</t>
+  </si>
+  <si>
+    <t>Fixtures level &amp; in place and acceptable</t>
+  </si>
+  <si>
+    <t>S - S - Electrical - Distribution Boards</t>
+  </si>
+  <si>
+    <t>6b3d23d0-b9eb-4e2e-ad30-e956e9a31d99</t>
+  </si>
+  <si>
+    <t>DB details</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>6dbfc516-a35d-5f9a-83f7-3eb07d0cc42b</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>86feec8a-3bd5-5b56-b411-de96fb2d4533</t>
+  </si>
+  <si>
+    <t>Test Instrument</t>
+  </si>
+  <si>
+    <t>6733d95a-a9b1-50b2-b3f0-9eabc2b311b6</t>
+  </si>
+  <si>
+    <t>Cable Size/Type</t>
+  </si>
+  <si>
+    <t>59018a64-e83b-5262-8399-7dce019f64ae</t>
+  </si>
+  <si>
+    <t>Main SW Size (A)</t>
+  </si>
+  <si>
+    <t>9d9ec29e-d1af-5691-9e06-0412c962b8c0</t>
+  </si>
+  <si>
+    <t>Submain Insulation Resistance</t>
+  </si>
+  <si>
+    <t>ea0e43b5-0305-5bf7-88f3-dd6a1dddb966</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>052a38dc-732e-5d9f-85f6-8fee33d7d4bb</t>
+  </si>
+  <si>
+    <t>Main SW Voltage E-N (V)</t>
+  </si>
+  <si>
+    <t>5c099c94-2e76-5d85-95fa-8fd7e0797a00</t>
+  </si>
+  <si>
+    <t>Main SW Voltage R-E/N (V)</t>
+  </si>
+  <si>
+    <t>9eab5ce2-259c-5da6-b305-73ac53a7623b</t>
+  </si>
+  <si>
+    <t>Main Sw Fault Loop Impedance (Z)</t>
+  </si>
+  <si>
+    <t>DB completed as per spec 100%</t>
+  </si>
+  <si>
     <t>PRE - S - First Fix - Electrical</t>
   </si>
   <si>
-    <t>32c93962-9caa-45bd-b041-04a07c91d8a8</t>
-  </si>
-  <si>
-    <t>Flushboxes at correct orientation and heights</t>
-  </si>
-  <si>
-    <t>Flushbox positioned correctly to suit kitchen and bathroom layouts</t>
-  </si>
-  <si>
-    <t>Metal flushboxes installed at Fire walls</t>
-  </si>
-  <si>
-    <t>Cables protected thru metal studs</t>
-  </si>
-  <si>
-    <t>Cables penetrating firewalls are supported 200mm from the wall</t>
-  </si>
-  <si>
-    <t>Kitchen island conduit installed.C/D/E 69,70,78,79,84,85,86,87.F75,F76,F77 &amp; F78</t>
-  </si>
-  <si>
-    <t>Bathroom Reo earth bond installed and extended to DB</t>
-  </si>
-  <si>
-    <t>Check lighting installation against drawing</t>
-  </si>
-  <si>
-    <t>cables at correct locations (including kitchen island) , cables labelled, 2- way lighting correctly wired,</t>
-  </si>
-  <si>
-    <t>Check no downlight clashes with rondo or strong backs</t>
-  </si>
-  <si>
-    <t>Check ceiling fans prewired in bedrooms and lounge 2 x 1.5mm 2c+e at each location</t>
-  </si>
-  <si>
-    <t>Check power installation against drawing</t>
-  </si>
-  <si>
-    <t>cables at correct locations (including kitchen island) , cables labelled, Comms panel, HWC and Heat pump wired wired</t>
-  </si>
-  <si>
-    <t>Check laundry power has separately labelled cable for dryer</t>
-  </si>
-  <si>
-    <t>Check laundry extract fan supply in place</t>
-  </si>
-  <si>
-    <t>Check bathroom/WC extract fan supply (inc surface socket) in position with switch loops</t>
-  </si>
-  <si>
-    <t>Confirm E4M contractor has installed controller before gib ceiling installed</t>
-  </si>
-  <si>
-    <t>Check UFH prewired inc draw wire</t>
-  </si>
-  <si>
-    <t>Check towel rail nogs inc draw wire</t>
-  </si>
-  <si>
-    <t>Check switchboard back box install in correct location and all cables are labelled</t>
-  </si>
-  <si>
-    <t>Check circuits against DB schedule</t>
-  </si>
-  <si>
-    <t>Check submain and hot water supply are installed to DB</t>
-  </si>
-  <si>
-    <t>Check any client extras are prewired</t>
-  </si>
-  <si>
-    <t>POST - S - Second Fix - Electrical</t>
-  </si>
-  <si>
-    <t>682a3041-61c0-4e85-9705-2d379a00cd2c</t>
-  </si>
-  <si>
-    <t>All cover plates in place &amp; fitted correctly and straight</t>
-  </si>
-  <si>
-    <t>All light fittings tight &amp; secure and acceptable</t>
-  </si>
-  <si>
-    <t>All cables are tied up</t>
-  </si>
-  <si>
-    <t>Switch board fit off is completed and acceptable</t>
-  </si>
-  <si>
-    <t>Test sheet for insulation Resistance are completed and acceptable</t>
-  </si>
-  <si>
-    <t>Fixtures level &amp; in place and acceptable</t>
-  </si>
-  <si>
-    <t>S - S - Electrical - Distribution Boards</t>
-  </si>
-  <si>
-    <t>6b3d23d0-b9eb-4e2e-ad30-e956e9a31d99</t>
-  </si>
-  <si>
-    <t>DB details</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>6dbfc516-a35d-5f9a-83f7-3eb07d0cc42b</t>
-  </si>
-  <si>
-    <t>textbox</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>86feec8a-3bd5-5b56-b411-de96fb2d4533</t>
-  </si>
-  <si>
-    <t>Test Instrument</t>
-  </si>
-  <si>
-    <t>6733d95a-a9b1-50b2-b3f0-9eabc2b311b6</t>
-  </si>
-  <si>
-    <t>Cable Size/Type</t>
-  </si>
-  <si>
-    <t>59018a64-e83b-5262-8399-7dce019f64ae</t>
-  </si>
-  <si>
-    <t>Main SW Size (A)</t>
-  </si>
-  <si>
-    <t>9d9ec29e-d1af-5691-9e06-0412c962b8c0</t>
-  </si>
-  <si>
-    <t>Submain Insulation Resistance</t>
-  </si>
-  <si>
-    <t>ea0e43b5-0305-5bf7-88f3-dd6a1dddb966</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>052a38dc-732e-5d9f-85f6-8fee33d7d4bb</t>
-  </si>
-  <si>
-    <t>Main SW Voltage E-N (V)</t>
-  </si>
-  <si>
-    <t>5c099c94-2e76-5d85-95fa-8fd7e0797a00</t>
-  </si>
-  <si>
-    <t>Main SW Voltage R-E/N (V)</t>
-  </si>
-  <si>
-    <t>9eab5ce2-259c-5da6-b305-73ac53a7623b</t>
-  </si>
-  <si>
-    <t>Main Sw Fault Loop Impedance (Z)</t>
-  </si>
-  <si>
-    <t>DB completed as per spec 100%</t>
+    <t>b9be4a95-f5a9-4249-a574-2637478c3d2a</t>
+  </si>
+  <si>
+    <t>Kitchen island conduit installed - C/D/E 69,70,78,79,84,85,86,87.F75,F76,F77 &amp; F78</t>
+  </si>
+  <si>
+    <t>Cables at correct locations (including kitchen island) , cables labelled, 2- way lighting correctly wired,</t>
+  </si>
+  <si>
+    <t>Check lights marked on floor or recorded on dimensioned drawing</t>
+  </si>
+  <si>
+    <t>Cables at correct locations (including kitchen island), Cables labelled, Comms panel, HWC and Heat pump wired</t>
+  </si>
+  <si>
+    <t>Check the bonding to shower/kitchen/ceiling/HWC</t>
   </si>
   <si>
     <t>checklist-sectioned</t>
@@ -757,7 +778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L118"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -1676,7 +1697,7 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -1686,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>13</v>
@@ -1698,25 +1719,24 @@
         <v>16</v>
       </c>
       <c r="K61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>31</v>
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1730,7 +1750,7 @@
         <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1744,7 +1764,7 @@
         <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1758,7 +1778,7 @@
         <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,7 +1792,7 @@
         <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1786,7 +1806,7 @@
         <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,7 +1820,7 @@
         <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1814,7 +1834,7 @@
         <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1828,7 +1848,7 @@
         <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,7 +1862,7 @@
         <v>19</v>
       </c>
       <c r="E71" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,7 +1876,7 @@
         <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1870,22 +1890,21 @@
         <v>19</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>105</v>
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,7 +1918,7 @@
         <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1913,7 +1932,7 @@
         <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1927,7 +1946,7 @@
         <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1941,7 +1960,7 @@
         <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1955,7 +1974,7 @@
         <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1969,7 +1988,7 @@
         <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1983,52 +2002,49 @@
         <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2042,86 +2058,472 @@
         <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>109</v>
-      </c>
-      <c r="B86" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" t="s">
-        <v>114</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" t="s">
-        <v>115</v>
-      </c>
-      <c r="E87" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" t="s">
-        <v>117</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" t="s">
-        <v>27</v>
+      <c r="A89" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>28</v>
       </c>
-      <c r="C90" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
         <v>29</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E109" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>118</v>
+      </c>
+      <c r="E113" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>122</v>
+      </c>
+      <c r="E114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
